--- a/VBA/SimpleTranscription/testdata/src/src.xlsx
+++ b/VBA/SimpleTranscription/testdata/src/src.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\PublicMemo\VBA\シンプル転記\testdata\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\VBA\SimpleTranscription\testdata\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB76FD2-445D-4315-876B-08C478E305C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482550F1-46DE-4205-9E7A-CF147136E1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="1875" windowWidth="22695" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="src" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -419,10 +419,10 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -504,81 +504,48 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04D8EB-D8CC-41BB-B140-CBD2E15529E4}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -596,10 +563,10 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -655,7 +622,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
